--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06039024287603298</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.553838508006331</v>
+        <v>-1.557580738467224</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006503174139814018</v>
+        <v>0.005601261183308723</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1379130802395241</v>
+        <v>-0.155035260241033</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05614050990719655</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.561015248189902</v>
+        <v>-1.569825820221383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01594571484849684</v>
+        <v>0.01522796212918373</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09914813732013075</v>
+        <v>-0.1193160443213565</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06324378905746493</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.634738368783823</v>
+        <v>-1.637757337458478</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04446828706526616</v>
+        <v>-0.04357424420436737</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1063618669530518</v>
+        <v>-0.1265124597439432</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07980994300421834</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.775719326430922</v>
+        <v>-1.77254610388238</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09714755901695757</v>
+        <v>-0.08808750495475082</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1111437370435633</v>
+        <v>-0.1329171435485157</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09880114310096771</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.827880746091706</v>
+        <v>-1.805548562798692</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.126008773625127</v>
+        <v>-0.1098152649051855</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1094752767749846</v>
+        <v>-0.1301264076464496</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1137991551974652</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.651500885416115</v>
+        <v>-1.629174211190025</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1303845467823429</v>
+        <v>-0.09886481387829663</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1077470037797964</v>
+        <v>-0.1235784881018387</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.120905958965959</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.327437106665365</v>
+        <v>-1.322093311748549</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1451047736047469</v>
+        <v>-0.1131175570216744</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06422537507583238</v>
+        <v>-0.08533139747335332</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1180893306445798</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8177350867675337</v>
+        <v>-0.8336822614949917</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08343313041306469</v>
+        <v>-0.04314296296513098</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07175705657125618</v>
+        <v>-0.08758381883593459</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.10249351844351</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2785217823644358</v>
+        <v>-0.3144361766551536</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08609007468982025</v>
+        <v>-0.03600478625003236</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001757506489092443</v>
+        <v>-0.02049125379049278</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07095616481521615</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2961085262870489</v>
+        <v>0.2418646793287846</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1156973743614862</v>
+        <v>-0.0718074251831378</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07699562048726533</v>
+        <v>0.05490268810068887</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02107596456270562</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9521691401599034</v>
+        <v>0.880749596550006</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1882942842741165</v>
+        <v>-0.1264919974953663</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1450514852349432</v>
+        <v>0.1315259389256064</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04769019609938271</v>
       </c>
       <c r="E13" t="n">
-        <v>1.633429800164782</v>
+        <v>1.54022268387784</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3473945630360687</v>
+        <v>-0.2789373234124592</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2494105269963001</v>
+        <v>0.2338906984602753</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1327795023614205</v>
       </c>
       <c r="E14" t="n">
-        <v>2.296376747693327</v>
+        <v>2.196391905070064</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5884540174441477</v>
+        <v>-0.5166236548435909</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3574826798648053</v>
+        <v>0.3435746469089924</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2302043602820401</v>
       </c>
       <c r="E15" t="n">
-        <v>2.998175209192937</v>
+        <v>2.887129734204295</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8825988407372138</v>
+        <v>-0.8079950564449251</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4984959049038913</v>
+        <v>0.4817829698739206</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3333898260336477</v>
       </c>
       <c r="E16" t="n">
-        <v>3.676330329471489</v>
+        <v>3.559731715022898</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.117784842794159</v>
+        <v>-1.044235651313142</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6599886927302205</v>
+        <v>0.6439462898459239</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4346858337567068</v>
       </c>
       <c r="E17" t="n">
-        <v>4.340445199188039</v>
+        <v>4.212974834668624</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.405844508164277</v>
+        <v>-1.320818356260296</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8319896322103533</v>
+        <v>0.8160432444924559</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5291844051871444</v>
       </c>
       <c r="E18" t="n">
-        <v>5.00254060237196</v>
+        <v>4.856761247433576</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.619238215486814</v>
+        <v>-1.537903925431844</v>
       </c>
       <c r="G18" t="n">
-        <v>0.991270923171255</v>
+        <v>0.974252628431752</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.612958007946699</v>
       </c>
       <c r="E19" t="n">
-        <v>5.48715433149538</v>
+        <v>5.344049235044086</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.845128847622919</v>
+        <v>-1.755062686492533</v>
       </c>
       <c r="G19" t="n">
-        <v>1.155938507565248</v>
+        <v>1.140812183809548</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6850348392858205</v>
       </c>
       <c r="E20" t="n">
-        <v>5.913919709872757</v>
+        <v>5.75931640374036</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.994977828999426</v>
+        <v>-1.905126521479098</v>
       </c>
       <c r="G20" t="n">
-        <v>1.282850095296601</v>
+        <v>1.268022835173948</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7458157625648744</v>
       </c>
       <c r="E21" t="n">
-        <v>6.205887664721064</v>
+        <v>6.060161826432804</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.196045392583058</v>
+        <v>-2.108563770849848</v>
       </c>
       <c r="G21" t="n">
-        <v>1.398335878226432</v>
+        <v>1.385852332575397</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.794582225404576</v>
       </c>
       <c r="E22" t="n">
-        <v>6.534026578976861</v>
+        <v>6.385234551440307</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.296077455779959</v>
+        <v>-2.213979766451158</v>
       </c>
       <c r="G22" t="n">
-        <v>1.493979576113147</v>
+        <v>1.484337134976059</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8309063074565397</v>
       </c>
       <c r="E23" t="n">
-        <v>6.654445337832849</v>
+        <v>6.51071850382864</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.385349524263649</v>
+        <v>-2.304785716568555</v>
       </c>
       <c r="G23" t="n">
-        <v>1.595214189918722</v>
+        <v>1.587304743834187</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.854639484573634</v>
       </c>
       <c r="E24" t="n">
-        <v>6.790246985561308</v>
+        <v>6.655775383990348</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.441244517280158</v>
+        <v>-2.366163018184554</v>
       </c>
       <c r="G24" t="n">
-        <v>1.595358999677882</v>
+        <v>1.589627996057226</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8666820956709903</v>
       </c>
       <c r="E25" t="n">
-        <v>6.864425784690845</v>
+        <v>6.731905966830298</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.447061304942924</v>
+        <v>-2.369519613960728</v>
       </c>
       <c r="G25" t="n">
-        <v>1.639178117995772</v>
+        <v>1.635707405833304</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8690242727137786</v>
       </c>
       <c r="E26" t="n">
-        <v>6.862581034280681</v>
+        <v>6.745344942087963</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.465962126551503</v>
+        <v>-2.37965078803498</v>
       </c>
       <c r="G26" t="n">
-        <v>1.668193586477829</v>
+        <v>1.677733716372032</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8633546050644346</v>
       </c>
       <c r="E27" t="n">
-        <v>6.79614168717058</v>
+        <v>6.691316735749317</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.372556683855278</v>
+        <v>-2.299649692175751</v>
       </c>
       <c r="G27" t="n">
-        <v>1.624906486622939</v>
+        <v>1.631736155590262</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8519852818292352</v>
       </c>
       <c r="E28" t="n">
-        <v>6.673412268244522</v>
+        <v>6.585665424289372</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.308065185407785</v>
+        <v>-2.250871626616203</v>
       </c>
       <c r="G28" t="n">
-        <v>1.57375558723803</v>
+        <v>1.591855233113867</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8366490148779695</v>
       </c>
       <c r="E29" t="n">
-        <v>6.519731337317208</v>
+        <v>6.446528430042877</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.222523542241578</v>
+        <v>-2.165464562084868</v>
       </c>
       <c r="G29" t="n">
-        <v>1.524400643670526</v>
+        <v>1.547538724753646</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8181587836055481</v>
       </c>
       <c r="E30" t="n">
-        <v>6.342216608855159</v>
+        <v>6.285526736182393</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.174926778032567</v>
+        <v>-2.127209601360776</v>
       </c>
       <c r="G30" t="n">
-        <v>1.454766037744183</v>
+        <v>1.477069888693014</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7965483843403065</v>
       </c>
       <c r="E31" t="n">
-        <v>6.063226441661976</v>
+        <v>6.023347093204702</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.990450162997005</v>
+        <v>-1.96805659295826</v>
       </c>
       <c r="G31" t="n">
-        <v>1.374037745050914</v>
+        <v>1.398065146937569</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7704876399554217</v>
       </c>
       <c r="E32" t="n">
-        <v>5.806549569532351</v>
+        <v>5.783488615386175</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.865992471075759</v>
+        <v>-1.853587626380789</v>
       </c>
       <c r="G32" t="n">
-        <v>1.292971038246564</v>
+        <v>1.32594201678045</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7385828237746257</v>
       </c>
       <c r="E33" t="n">
-        <v>5.45210879575962</v>
+        <v>5.446495843573062</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.798652785028273</v>
+        <v>-1.794782272008995</v>
       </c>
       <c r="G33" t="n">
-        <v>1.214702937439888</v>
+        <v>1.251152498231848</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.700139169608633</v>
       </c>
       <c r="E34" t="n">
-        <v>5.150931255032583</v>
+        <v>5.161743192376797</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.715824750827188</v>
+        <v>-1.713375577074445</v>
       </c>
       <c r="G34" t="n">
-        <v>1.098636341454296</v>
+        <v>1.139619077315602</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6561830700858799</v>
       </c>
       <c r="E35" t="n">
-        <v>4.745534760245984</v>
+        <v>4.773268977163302</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.66630689628063</v>
+        <v>-1.668104426117155</v>
       </c>
       <c r="G35" t="n">
-        <v>1.026979120957082</v>
+        <v>1.065786562392751</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.609744760615445</v>
       </c>
       <c r="E36" t="n">
-        <v>4.280682841190495</v>
+        <v>4.319351768943489</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.587183316081526</v>
+        <v>-1.598313205288243</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9608860580536666</v>
+        <v>1.004598143071308</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5632727724617016</v>
       </c>
       <c r="E37" t="n">
-        <v>3.913179282730089</v>
+        <v>3.964984974069458</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.553241167749798</v>
+        <v>-1.564290781981329</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8819206667762537</v>
+        <v>0.9235031039227752</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5195923184300493</v>
       </c>
       <c r="E38" t="n">
-        <v>3.571510100107591</v>
+        <v>3.635333427438091</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.460426769233621</v>
+        <v>-1.474556738885537</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7878840424123866</v>
+        <v>0.8335211528153788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4799600608279816</v>
       </c>
       <c r="E39" t="n">
-        <v>3.143472914280203</v>
+        <v>3.219771917166133</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.436086924551388</v>
+        <v>-1.45179799641065</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7241960807263182</v>
+        <v>0.7654778802206713</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4441516584254199</v>
       </c>
       <c r="E40" t="n">
-        <v>2.734248404990601</v>
+        <v>2.822738185971005</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.433865983571232</v>
+        <v>-1.449169384478078</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6535320662946451</v>
+        <v>0.6959786399387607</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4116428486257533</v>
       </c>
       <c r="E41" t="n">
-        <v>2.384014984329106</v>
+        <v>2.472723553967371</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.401388460031875</v>
+        <v>-1.420659963143519</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6018035018922193</v>
+        <v>0.6450906017471095</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3809927818506346</v>
       </c>
       <c r="E42" t="n">
-        <v>2.009544817237824</v>
+        <v>2.102605549746484</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.371706394451947</v>
+        <v>-1.390705592255607</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5365462431422141</v>
+        <v>0.578852729084534</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3510892473974292</v>
       </c>
       <c r="E43" t="n">
-        <v>1.77127452471269</v>
+        <v>1.858667214365546</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.349166440634921</v>
+        <v>-1.363146878470314</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4621659695651501</v>
+        <v>0.5045338422532007</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3211895195712951</v>
       </c>
       <c r="E44" t="n">
-        <v>1.556137591213312</v>
+        <v>1.632948150313664</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.350450840237903</v>
+        <v>-1.362792724168021</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3936095667368987</v>
+        <v>0.4314615785659376</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2904560985682308</v>
       </c>
       <c r="E45" t="n">
-        <v>1.33596222250665</v>
+        <v>1.41378644992112</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.280112647764339</v>
+        <v>-1.292041351675116</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3373856037240381</v>
+        <v>0.3782990827440069</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2597443815471595</v>
       </c>
       <c r="E46" t="n">
-        <v>1.11344156530925</v>
+        <v>1.190596834597168</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.218655858182714</v>
+        <v>-1.229253728926431</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3005252239414186</v>
+        <v>0.3356352944611518</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2299275770091587</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9883794500454257</v>
+        <v>1.062391403148105</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.169239527869479</v>
+        <v>-1.181949732273982</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2253138682683078</v>
+        <v>0.2626496018255601</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2018809505883652</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8202474495654501</v>
+        <v>0.8813603159690706</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.096258557291251</v>
+        <v>-1.106637639377108</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1659953836629701</v>
+        <v>0.1952296408028878</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1761076049887745</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6574372077345921</v>
+        <v>0.720012337901901</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.035807565928138</v>
+        <v>-1.041775459426549</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1197979224527949</v>
+        <v>0.1501465851305935</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1523302736529894</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5791187383160338</v>
+        <v>0.6384325008640076</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9788186296223248</v>
+        <v>-0.9804540354893563</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1033100721571702</v>
+        <v>0.1269911898371391</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1310161133031012</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4600630800190924</v>
+        <v>0.5171212731662423</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9603396451382548</v>
+        <v>-0.9602892765263732</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09345356441958531</v>
+        <v>0.1108543458055644</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1123563562200392</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3167155846231175</v>
+        <v>0.3592408592232981</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9617877427298513</v>
+        <v>-0.952981105746174</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03683452260727827</v>
+        <v>0.05768870194539109</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09569595276536433</v>
       </c>
       <c r="E53" t="n">
-        <v>0.253739079579877</v>
+        <v>0.3007062361403682</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9316618037577169</v>
+        <v>-0.9355850464175588</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04414741544484126</v>
+        <v>0.05899828585431326</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.08068026393449869</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1460305251283922</v>
+        <v>0.1759463325478331</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8986994823289985</v>
+        <v>-0.8953688578683263</v>
       </c>
       <c r="G54" t="n">
-        <v>0.004672589901741317</v>
+        <v>0.01787388827209018</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.06663954430410828</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0947977767491761</v>
+        <v>0.1098690098356302</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9122218806000927</v>
+        <v>-0.9022921809733674</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.00667136590547274</v>
+        <v>0.005956989504722679</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.05296650735353874</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01552230370486696</v>
+        <v>0.02740614807068715</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.92341236954298</v>
+        <v>-0.9084040972213779</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0409062817937627</v>
+        <v>-0.03047525707690304</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.03912426733816958</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08114608062981478</v>
+        <v>-0.07359708492405669</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9542985597507028</v>
+        <v>-0.9332405449363814</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07995454815499016</v>
+        <v>-0.07071033385559122</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.02455336197788074</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1199802803905454</v>
+        <v>-0.1162498550730627</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9538798706644367</v>
+        <v>-0.9292496194543236</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1056378181572535</v>
+        <v>-0.0979156803481523</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.009116988522714623</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1942346324379053</v>
+        <v>-0.1941905599025089</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9624220724357355</v>
+        <v>-0.9399442923740011</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1197646397709272</v>
+        <v>-0.1148237937491643</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.007128489469042318</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2730866943385846</v>
+        <v>-0.2780070781117705</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.000543241534517</v>
+        <v>-0.9693099801105474</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1283776724026845</v>
+        <v>-0.1253067610970269</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.02400261800422722</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3498799392286025</v>
+        <v>-0.3607217829361217</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9822617964501701</v>
+        <v>-0.951198529091301</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1668514217846372</v>
+        <v>-0.1629635945550245</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.04117685502097485</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4746398428211376</v>
+        <v>-0.482514660485005</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.02039319667324</v>
+        <v>-0.9802258027167676</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.186983126346073</v>
+        <v>-0.18285290017178</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0589960575255379</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5250934517353099</v>
+        <v>-0.5285846261463548</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.047358505249803</v>
+        <v>-0.9991651877938181</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2219184807433418</v>
+        <v>-0.2164613564497923</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.07750278113648663</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6691586998505979</v>
+        <v>-0.6734054034398672</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.088690673356037</v>
+        <v>-1.037240710338082</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2710955601501392</v>
+        <v>-0.2636473016681443</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.0966093430283937</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8371159842081091</v>
+        <v>-0.8391102664347971</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.156192483373017</v>
+        <v>-1.099183871828188</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3341838205509921</v>
+        <v>-0.3238409409049252</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1156977699379099</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9476868924316791</v>
+        <v>-0.9468786336128913</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.183654394982351</v>
+        <v>-1.125559710243824</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3688027971048794</v>
+        <v>-0.3598041297884034</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1336004510394135</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.038477102357864</v>
+        <v>-1.02989318907985</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.244565786938445</v>
+        <v>-1.181049393336598</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.426440229288668</v>
+        <v>-0.4108023493185456</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1493355182301173</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.141764237097615</v>
+        <v>-1.121637254593543</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.310255900946807</v>
+        <v>-1.237682601320997</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4509697432750179</v>
+        <v>-0.4417837676831071</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1618714226491068</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.307211747966212</v>
+        <v>-1.272133944838465</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.366956791753422</v>
+        <v>-1.292569435090312</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.485132254283728</v>
+        <v>-0.473448310346313</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1703435617026777</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.365581886050966</v>
+        <v>-1.326258166343511</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.454421886285859</v>
+        <v>-1.373280413573248</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5244008833219376</v>
+        <v>-0.5081507099136293</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1736731518793646</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.426960761686086</v>
+        <v>-1.382563978350679</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.491437306951926</v>
+        <v>-1.401865387825629</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5819847988556019</v>
+        <v>-0.5606647098575841</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1711065475548599</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.505083265724043</v>
+        <v>-1.457565202471096</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.538424925760995</v>
+        <v>-1.450803216325989</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5723470797758778</v>
+        <v>-0.545210990124654</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1620378900612416</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.556108243579247</v>
+        <v>-1.491383790301802</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.542651167101687</v>
+        <v>-1.457068599438326</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.602683150300706</v>
+        <v>-0.5716214569609582</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1459017736154934</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.606935682034728</v>
+        <v>-1.536547907958843</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.576627156844523</v>
+        <v>-1.492372274309979</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.608100924116223</v>
+        <v>-0.5784369597561901</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1229915664628167</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.606035343097344</v>
+        <v>-1.527876636619598</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.564278189828358</v>
+        <v>-1.48391506957123</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6291313935959214</v>
+        <v>-0.5988504137403388</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.0939802762090057</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.521558523866697</v>
+        <v>-1.445508216001933</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.633529522098664</v>
+        <v>-1.544666698586512</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6120532861298089</v>
+        <v>-0.581001036904789</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05959282157272296</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.470847562826192</v>
+        <v>-1.402406850403356</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.642991738046363</v>
+        <v>-1.555335400190688</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5858490157983951</v>
+        <v>-0.5559741328761081</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.02103177430581372</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.296942060209286</v>
+        <v>-1.230192631332287</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.586109835040799</v>
+        <v>-1.504059366285637</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5466339034103098</v>
+        <v>-0.5173020570848714</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.02073027047768036</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.175644998683612</v>
+        <v>-1.111840559582567</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.558034055974158</v>
+        <v>-1.484525001980734</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5522578737307171</v>
+        <v>-0.516844017520573</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.06410136055414178</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9940661528503646</v>
+        <v>-0.9352151519240531</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.520311113713066</v>
+        <v>-1.452417372934882</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5401206122863675</v>
+        <v>-0.5046925899041317</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1074715599148168</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8486338691282269</v>
+        <v>-0.7903723383628426</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.48275344345971</v>
+        <v>-1.423006038643818</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5068899205974674</v>
+        <v>-0.4747232658345666</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1498494618040394</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6368755676727208</v>
+        <v>-0.5910558710516578</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.472361769220883</v>
+        <v>-1.418795537494339</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4581661586976046</v>
+        <v>-0.4307656338340022</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.190386014700707</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4292624455731601</v>
+        <v>-0.3871401198680324</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.375614683930136</v>
+        <v>-1.338408806950391</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3728858027055333</v>
+        <v>-0.347605481598323</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2288846907813225</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2359728974774356</v>
+        <v>-0.2014326218796133</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.346618103677535</v>
+        <v>-1.321393660249131</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.35077240807038</v>
+        <v>-0.3263074288680034</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.264636574948338</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.04217336718640975</v>
+        <v>-0.01064104212939307</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.22102318294115</v>
+        <v>-1.202400962717042</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3241463006144575</v>
+        <v>-0.2949797262967558</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2962106697013525</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2239271574224419</v>
+        <v>0.2478805804103958</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.113471243392235</v>
+        <v>-1.102858419466865</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.257683343217536</v>
+        <v>-0.2276856868037875</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3222121375782077</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4600929863823971</v>
+        <v>0.4780021759445564</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9799109988925075</v>
+        <v>-0.9788627021577212</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1939953815314676</v>
+        <v>-0.1674164946491842</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3408268390131225</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6332823102991118</v>
+        <v>0.6516825938271168</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8291309852057507</v>
+        <v>-0.8308765724112732</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1696201214190051</v>
+        <v>-0.1424619955000831</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.350559386380328</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8200223648311041</v>
+        <v>0.8308185619841055</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7118209141143318</v>
+        <v>-0.7121199777473789</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1122282362181395</v>
+        <v>-0.0898929048868827</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3497481592985392</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9592569482631204</v>
+        <v>0.9654727497731368</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5268390389408323</v>
+        <v>-0.5383876172338155</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09434895301928495</v>
+        <v>-0.07175863059037749</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3382274548939841</v>
       </c>
       <c r="E91" t="n">
-        <v>1.080278556442566</v>
+        <v>1.083092902631452</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3273856319660944</v>
+        <v>-0.3402973108181239</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1130719104671566</v>
+        <v>-0.09037927679536462</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3162924523845771</v>
       </c>
       <c r="E92" t="n">
-        <v>1.143802820140019</v>
+        <v>1.142636471971136</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1906852193193722</v>
+        <v>-0.2023880514862429</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07457455079838442</v>
+        <v>-0.05206922540202718</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2849770169025822</v>
       </c>
       <c r="E93" t="n">
-        <v>1.17858234664428</v>
+        <v>1.180030444235876</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09088296291418084</v>
+        <v>-0.1029037469435542</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07173816834180057</v>
+        <v>-0.0516694245452168</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2464444715255978</v>
       </c>
       <c r="E94" t="n">
-        <v>1.164937174881724</v>
+        <v>1.159056639444545</v>
       </c>
       <c r="F94" t="n">
-        <v>0.06223761720595007</v>
+        <v>0.04403723410635021</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03511703946561877</v>
+        <v>-0.01807513443929622</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2039191557980212</v>
       </c>
       <c r="E95" t="n">
-        <v>1.17949055567727</v>
+        <v>1.168488162019378</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1424575017230396</v>
+        <v>0.1210398235395012</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06819347728063142</v>
+        <v>-0.05231005032758618</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1605813564879445</v>
       </c>
       <c r="E96" t="n">
-        <v>1.100378780621576</v>
+        <v>1.089226855147161</v>
       </c>
       <c r="F96" t="n">
-        <v>0.222409802989508</v>
+        <v>0.1970350407350197</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09553576343674568</v>
+        <v>-0.08403440571740155</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1214223224584533</v>
       </c>
       <c r="E97" t="n">
-        <v>1.050959302270098</v>
+        <v>1.037331444717877</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2706377488661612</v>
+        <v>0.2430987103198843</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05910509087424125</v>
+        <v>-0.04747308956782917</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.08973176629571521</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9328732397518782</v>
+        <v>0.9240382704240174</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2507594613832547</v>
+        <v>0.2247299071743053</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1167236348285742</v>
+        <v>-0.1065287129799097</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.06731739235536559</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9009064854173825</v>
+        <v>0.8881065619229653</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2305207235215705</v>
+        <v>0.2101859704934869</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1028628224464004</v>
+        <v>-0.09373665958109899</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04906740144935018</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8441316157120667</v>
+        <v>0.8352872022694782</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2220981472034905</v>
+        <v>0.2001988191688341</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1044368415677011</v>
+        <v>-0.09585056726100581</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03151948800416794</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7888866925926552</v>
+        <v>0.7790112966256146</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1987727578449356</v>
+        <v>0.1823462942950416</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08997003182382644</v>
+        <v>-0.08288064970148815</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.006645113714703501</v>
       </c>
       <c r="E102" t="n">
-        <v>0.776458237610865</v>
+        <v>0.7669952346536052</v>
       </c>
       <c r="F102" t="n">
-        <v>0.167654399816821</v>
+        <v>0.1564584018070092</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07288405426210748</v>
+        <v>-0.06738915350964678</v>
       </c>
     </row>
   </sheetData>
